--- a/기획/테이블/아이템/아이템 가치 테이블.xlsx
+++ b/기획/테이블/아이템/아이템 가치 테이블.xlsx
@@ -8,28 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC32343-94F3-44DF-9544-422A2F3C8675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D28A0-DD61-43C4-B0FB-9AC05C1A2553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="1785" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="2895" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>targetID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>saleable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,8 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -365,18 +373,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +396,260 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(D2*0.75,0)</f>
+        <v>113</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5001</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C18" si="0">ROUND(D3*0.75,0)</f>
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>15001</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>17500</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>17501</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>ROUND(D14*0.5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C18" si="1">ROUND(D15*0.5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
